--- a/03_設計/非機能要求一覧 _第3反復_7.xlsx
+++ b/03_設計/非機能要求一覧 _第3反復_7.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BEBEFF1C-E4E3-448A-84D9-E68412FBEB9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9333D33-35EB-419B-80D9-FBE3E16703D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求_例" sheetId="6" r:id="rId1"/>
@@ -19,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -387,11 +385,6 @@
     <t>MUST</t>
   </si>
   <si>
-    <t>二人対戦できるように配慮する。
-(二人対戦に変更できるようにクラス図や構造を考える。)_x000D_
-※反復2では対応しない</t>
-  </si>
-  <si>
     <t>機能追加やテストがしやすいようにする。</t>
   </si>
   <si>
@@ -409,13 +402,19 @@
   <si>
     <t>N05-03</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二人対戦できるように配慮する。
+(二人対戦に変更できるようにクラス図や構造を考える。)
+</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,7 +1138,7 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -1528,14 +1527,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
@@ -1547,8 +1546,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1570,14 +1569,14 @@
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="18"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1588,14 +1587,14 @@
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="19"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1605,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1615,7 +1614,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1625,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
         <v>15</v>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
@@ -1654,7 +1653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1664,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="8" t="s">
         <v>23</v>
@@ -1678,8 +1677,8 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
@@ -1705,11 +1704,11 @@
   </sheetPr>
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2098,14 +2097,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
@@ -2117,8 +2116,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2139,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1">
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>26</v>
@@ -2149,7 +2148,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>27</v>
@@ -2158,7 +2157,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -2167,7 +2166,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2177,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>29</v>
@@ -2187,7 +2186,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>30</v>
@@ -2196,7 +2195,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="12">
+    <row r="15" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>31</v>
@@ -2205,7 +2204,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2215,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>32</v>
@@ -2225,7 +2224,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="12">
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>33</v>
@@ -2234,7 +2233,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="10" t="s">
         <v>34</v>
@@ -2243,7 +2242,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="2:6" ht="91.5" customHeight="1">
+    <row r="21" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>15</v>
@@ -2266,34 +2265,34 @@
         <v>36</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="54.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="25"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2304,7 +2303,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -2313,26 +2312,26 @@
       <c r="E25" s="25"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="2:6" ht="12">
+    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="25"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="25"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="2:6" ht="9" customHeight="1"/>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="16"/>
     </row>
   </sheetData>
@@ -2351,12 +2350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2540,6 +2533,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2550,15 +2549,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2576,6 +2566,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
